--- a/world-disturbance-rpg/checklist.xlsx
+++ b/world-disturbance-rpg/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/world-disturbance-rpg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F5A55E-DC3E-B145-A6FB-0892539A636D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AE8A6EB-DA29-604E-A5A3-1BD88274F330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{20853D30-635E-5443-9E53-4E5B4A1F9B98}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
   <si>
     <t>year</t>
   </si>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t>princess_tokugawa.jpg</t>
+  </si>
+  <si>
+    <t>超時空時代劇RPG 天下繚乱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Space-Time Historical Drama RPG World Disturbance </t>
+  </si>
+  <si>
+    <t>Shinkigensha</t>
+  </si>
+  <si>
+    <t>world_disturbance2.jpg</t>
   </si>
 </sst>
 </file>
@@ -303,11 +315,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A58EBB0-4B45-C34A-80D4-7C5FAF9A7FEC}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="A1:F22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1076,6 +1091,26 @@
         <v>33</v>
       </c>
     </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2021</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
     <sortCondition ref="A2:A22"/>
